--- a/src/files/stats/data/berechnungen/treibstoffverbrauch.xlsx
+++ b/src/files/stats/data/berechnungen/treibstoffverbrauch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\balplot\enerbal\src\files\stats\processing\gefahrene_kilometer_private_pkw_2000_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\enerbal\src\files\stats\data\berechnungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,16 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="12" r:id="rId1"/>
-    <sheet name="Wien" sheetId="11" r:id="rId2"/>
-    <sheet name="Vorarlberg" sheetId="10" r:id="rId3"/>
-    <sheet name="Tirol" sheetId="9" r:id="rId4"/>
-    <sheet name="Salzburg" sheetId="7" r:id="rId5"/>
-    <sheet name="Steiermark" sheetId="8" r:id="rId6"/>
-    <sheet name="Oberösterreich" sheetId="6" r:id="rId7"/>
-    <sheet name="Niederösterreich" sheetId="5" r:id="rId8"/>
-    <sheet name="Kärnten" sheetId="4" r:id="rId9"/>
-    <sheet name="Burgenland" sheetId="3" r:id="rId10"/>
-    <sheet name="Österreich" sheetId="2" r:id="rId11"/>
+    <sheet name="Österreich" sheetId="2" r:id="rId2"/>
+    <sheet name="Wien" sheetId="11" r:id="rId3"/>
+    <sheet name="Vorarlberg" sheetId="10" r:id="rId4"/>
+    <sheet name="Tirol" sheetId="9" r:id="rId5"/>
+    <sheet name="Salzburg" sheetId="7" r:id="rId6"/>
+    <sheet name="Steiermark" sheetId="8" r:id="rId7"/>
+    <sheet name="Oberösterreich" sheetId="6" r:id="rId8"/>
+    <sheet name="Niederösterreich" sheetId="5" r:id="rId9"/>
+    <sheet name="Kärnten" sheetId="4" r:id="rId10"/>
+    <sheet name="Burgenland" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -698,7 +698,7 @@
   <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,6 +3159,183 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2013</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1.2914913564000001</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.0367495964000002</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.87001916400000001</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.86530087560000002</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.78146801040000002</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.71621605440000002</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.60613403760000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.93251484480000002</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.5311222962</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.6259156088000002</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.6264248854000001</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.7522929592000001</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.8748490838000003</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.5477322476000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2.2240062012000004</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2.5678718926000004</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.4959347728000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.4917257610000001</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.5337609695999999</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2.5910651382000003</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2.1538662852000003</v>
+      </c>
+      <c r="I5" t="e">
+        <f>I7/Burgenland!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" t="e">
+        <f>J7/Burgenland!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="2">
+        <v>2325727869</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2433575094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="8" t="e">
+        <f>I5/2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="8" t="e">
+        <f>J5/2</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3348,7 +3525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L99"/>
   <sheetViews>
@@ -5311,7 +5488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -5537,183 +5714,6 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>1999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2007</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2011</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2013</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2015</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0.74831950199999997</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.61724504520000001</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.59365511520000003</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.53355617280000001</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.58262714160000006</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.40160049719999996</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.41713404599999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.33696394480000003</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.70911507380000005</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.75564597360000008</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.72668480780000011</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.77109880959999999</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.84677123440000013</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.76650389340000014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1.0852834467999999</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1.3263601190000001</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1.3493010888000001</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1.2602409806000001</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1.3537259511999999</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1.2483717316</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1.1836379394000001</v>
-      </c>
-      <c r="I5" t="e">
-        <f>I7/Burgenland!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" t="e">
-        <f>J7/Burgenland!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="2">
-        <v>1258113639</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1302601400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="8" t="e">
-        <f>I5/2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="8" t="e">
-        <f>J5/2</f>
-        <v>#REF!</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5793,25 +5793,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="8">
-        <v>1.2014966964</v>
+        <v>0.74831950199999997</v>
       </c>
       <c r="C3" s="8">
-        <v>1.0268726076000001</v>
+        <v>0.61724504520000001</v>
       </c>
       <c r="D3" s="8">
-        <v>0.95430594000000002</v>
+        <v>0.59365511520000003</v>
       </c>
       <c r="E3" s="8">
-        <v>0.89344134600000003</v>
+        <v>0.53355617280000001</v>
       </c>
       <c r="F3" s="8">
-        <v>0.86827157760000007</v>
+        <v>0.58262714160000006</v>
       </c>
       <c r="G3" s="8">
-        <v>0.81951452520000001</v>
+        <v>0.40160049719999996</v>
       </c>
       <c r="H3" s="8">
-        <v>0.73642763880000006</v>
+        <v>0.41713404599999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5819,25 +5819,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="8">
-        <v>0.9176955200000001</v>
+        <v>0.33696394480000003</v>
       </c>
       <c r="C4" s="8">
-        <v>1.5826389949999999</v>
+        <v>0.70911507380000005</v>
       </c>
       <c r="D4" s="8">
-        <v>1.7652009018000001</v>
+        <v>0.75564597360000008</v>
       </c>
       <c r="E4" s="8">
-        <v>1.7747842336000001</v>
+        <v>0.72668480780000011</v>
       </c>
       <c r="F4" s="8">
-        <v>1.7673812450000002</v>
+        <v>0.77109880959999999</v>
       </c>
       <c r="G4" s="8">
-        <v>1.8987267054000001</v>
+        <v>0.84677123440000013</v>
       </c>
       <c r="H4" s="8">
-        <v>1.7679635120000003</v>
+        <v>0.76650389340000014</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5845,41 +5845,41 @@
         <v>2</v>
       </c>
       <c r="B5" s="8">
-        <v>2.1191922164000001</v>
+        <v>1.0852834467999999</v>
       </c>
       <c r="C5" s="8">
-        <v>2.6095116026</v>
+        <v>1.3263601190000001</v>
       </c>
       <c r="D5" s="8">
-        <v>2.7195068418000004</v>
+        <v>1.3493010888000001</v>
       </c>
       <c r="E5" s="8">
-        <v>2.6682255796000005</v>
+        <v>1.2602409806000001</v>
       </c>
       <c r="F5" s="8">
-        <v>2.6356528226000004</v>
+        <v>1.3537259511999999</v>
       </c>
       <c r="G5" s="8">
-        <v>2.7182412306000003</v>
+        <v>1.2483717316</v>
       </c>
       <c r="H5" s="8">
-        <v>2.5043911508000001</v>
+        <v>1.1836379394000001</v>
       </c>
       <c r="I5" t="e">
-        <f>I6/Burgenland!#REF!</f>
+        <f>I7/Burgenland!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J5" t="e">
-        <f>J6/Burgenland!#REF!</f>
+        <f>J7/Burgenland!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="2">
-        <v>2444921282</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2528165179</v>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="2">
+        <v>1258113639</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1302601400</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5898,6 +5898,183 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2013</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1.2014966964</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.0268726076000001</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.95430594000000002</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.89344134600000003</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.86827157760000007</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.81951452520000001</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.73642763880000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.9176955200000001</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.5826389949999999</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.7652009018000001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.7747842336000001</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.7673812450000002</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.8987267054000001</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.7679635120000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2.1191922164000001</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2.6095116026</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.7195068418000004</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.6682255796000005</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.6356528226000004</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2.7182412306000003</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2.5043911508000001</v>
+      </c>
+      <c r="I5" t="e">
+        <f>I6/Burgenland!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" t="e">
+        <f>J6/Burgenland!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="2">
+        <v>2444921282</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2528165179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="8" t="e">
+        <f>I5/2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="8" t="e">
+        <f>J5/2</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -6077,7 +6254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -6254,7 +6431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -6434,7 +6611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -6613,181 +6790,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>1999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2007</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2011</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2013</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2015</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1.2914913564000001</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1.0367495964000002</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.87001916400000001</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.86530087560000002</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.78146801040000002</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.71621605440000002</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.60613403760000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.93251484480000002</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1.5311222962</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1.6259156088000002</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1.6264248854000001</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1.7522929592000001</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1.8748490838000003</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1.5477322476000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2.2240062012000004</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2.5678718926000004</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2.4959347728000001</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2.4917257610000001</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2.5337609695999999</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2.5910651382000003</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2.1538662852000003</v>
-      </c>
-      <c r="I5" t="e">
-        <f>I7/Burgenland!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" t="e">
-        <f>J7/Burgenland!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="2">
-        <v>2325727869</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2433575094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="8" t="e">
-        <f>I5/2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="8" t="e">
-        <f>J5/2</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>